--- a/data/trans_dic/POLIPATOLOGIA_Lim_2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_Lim_2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +527,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,83 +543,65 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -639,9 +619,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,60 +633,45 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,03%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>37,03%</t>
+          <t>30,26%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>30,26%</t>
+          <t>36,71%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36,71%</t>
+          <t>51,31%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>51,31%</t>
+          <t>58,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>48,86%</t>
+          <t>45,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>58,56%</t>
+          <t>40,84%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>45,29%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>40,84%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>49,7%</t>
         </is>
@@ -724,62 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>33,87; 40,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>34,03; 40,42</t>
+          <t>26,96; 33,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,89; 33,25</t>
+          <t>32,77; 40,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>32,76; 40,56</t>
+          <t>48,65; 54,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>45,33; 51,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>48,62; 54,02</t>
+          <t>55,85; 61,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>45,48; 52,09</t>
+          <t>43,0; 47,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>55,87; 61,27</t>
+          <t>38,37; 43,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>43,12; 47,36</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>38,46; 43,21</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>47,45; 52,23</t>
+          <t>47,37; 52,29</t>
         </is>
       </c>
     </row>
@@ -796,60 +743,45 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>14,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>22,66%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,66%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>13,19%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>14,7%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>18,36%</t>
         </is>
@@ -864,62 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>8,38; 11,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,34; 11,1</t>
+          <t>9,7; 12,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,63; 12,52</t>
+          <t>9,84; 16,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,05; 16,57</t>
+          <t>15,28; 19,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>16,88; 20,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,43; 19,34</t>
+          <t>16,57; 25,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,75; 20,46</t>
+          <t>12,16; 14,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,54; 25,83</t>
+          <t>13,54; 15,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>12,06; 14,39</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>13,45; 15,93</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>14,6; 20,46</t>
+          <t>14,45; 20,59</t>
         </is>
       </c>
     </row>
@@ -936,60 +853,45 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>22,39%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,39%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>8,52%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>9,67%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>17,54%</t>
         </is>
@@ -1004,62 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>4,39; 9,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,04; 9,02</t>
+          <t>6,33; 11,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,61; 11,8</t>
+          <t>10,06; 15,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,01; 15,28</t>
+          <t>8,02; 14,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>8,0; 13,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,11; 14,43</t>
+          <t>19,58; 25,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,98; 13,2</t>
+          <t>6,62; 10,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,63; 25,1</t>
+          <t>7,91; 11,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>6,72; 10,63</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>7,99; 11,83</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>15,75; 19,79</t>
+          <t>15,73; 19,4</t>
         </is>
       </c>
     </row>
@@ -1076,60 +963,45 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>29,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,16%</t>
+          <t>30,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,83%</t>
+          <t>23,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,04%</t>
+          <t>20,52%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>23,21%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>20,52%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>23,81%</t>
         </is>
@@ -1144,62 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>15,66; 18,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,66; 18,5</t>
+          <t>13,71; 16,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,77; 16,24</t>
+          <t>13,27; 19,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,57; 19,04</t>
+          <t>27,71; 30,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>24,29; 27,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,69; 30,8</t>
+          <t>24,29; 32,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,33; 27,46</t>
+          <t>22,17; 24,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,96; 32,5</t>
+          <t>19,45; 21,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>22,23; 24,23</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>19,6; 21,56</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>20,23; 25,58</t>
+          <t>20,77; 25,57</t>
         </is>
       </c>
     </row>
@@ -1212,14 +1069,809 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dos o más enfermedades crónicas de las que al menos una es limitante</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>863</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1134</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>360882</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>228273</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>189009</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>686472</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>485979</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>442456</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1047354</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>714252</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>631465</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>330070; 392177</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>203357; 253316</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>168756; 209468</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>650822; 724565</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>450852; 516961</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>421938; 463527</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>994354; 1092043</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>671092; 755277</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>601859; 664351</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1213</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>190082</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>228268</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>324037</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>300819</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>369348</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>507111</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>490901</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>597616</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>831148</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>164646; 221259</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>201364; 258857</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>225283; 376658</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>268600; 334263</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>335687; 409628</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>370787; 580495</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>452541; 536970</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>550364; 647759</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>654392; 932210</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>30916</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>48899</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>81429</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>49154</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>57105</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>147890</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>80070</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>106005</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>229320</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>21144; 45759</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>34596; 64097</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>65044; 98890</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>36786; 66976</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>43941; 73006</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>129310; 165732</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>62211; 100533</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>86729; 126725</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>205572; 253535</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>740</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>806</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1489</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1304</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2682</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>581879</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>505441</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>594475</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1036445</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>912432</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1097458</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1618324</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1417873</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1691933</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>535487; 630046</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>462995; 545959</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>458049; 662386</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>985003; 1092650</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>857823; 970431</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>887446; 1188446</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1546474; 1691601</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1343710; 1488955</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1476018; 1817035</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
